--- a/static/checklists/DPDPA_Manufacturing_Industrial_Checklist.xlsx
+++ b/static/checklists/DPDPA_Manufacturing_Industrial_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshparekh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshparekh/Desktop/clients/Securze/DPDPA/dpdpa-docs/static/checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E93788-3724-D940-9A72-6A4F30E5328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF7E52A-8793-324D-8420-D7EC2A48AFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="2" r:id="rId1"/>
@@ -20,30 +20,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="369">
   <si>
     <t>Rule / Clause</t>
   </si>
@@ -1150,6 +1128,12 @@
   </si>
   <si>
     <t>DPDPA_Manufacturing_Industrial_Checklist</t>
+  </si>
+  <si>
+    <t>Company Website</t>
+  </si>
+  <si>
+    <t>https://dpdpaedu.org</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1338,15 +1322,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1385,26 +1360,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1421,41 +1384,26 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1467,20 +1415,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1500,68 +1440,97 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115711</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441B68A8-FE30-BEED-3E9A-44A09DDA60E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10083800" y="1460499"/>
+          <a:ext cx="2985911" cy="1679575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>949500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8655A456-E6D4-D95E-0093-2C1095894979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="901700"/>
+          <a:ext cx="2435400" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1851,401 +1820,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3227311A-2575-E541-9612-B9D9AEC0D0F0}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="17" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C13" s="17">
         <v>45949</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="36" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="29" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JN+a2Ye1k1ne8Hw6yQ2EBbYfHUzByXfWEXLWAcdk1kshnOjHxnppPqKaYLAMUmqgvljcdcjIRerjtKCXdw+/bA==" saltValue="HavjLG/OKcVcDQMNPlaaag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="E7:G11"/>
-    <mergeCell ref="B16:C26"/>
-    <mergeCell ref="B29:C35"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BXutkwzaRFwZRtOtkq3ZmptBnUcLJDHDsrvficQzq9DREKEWuabvJTq4Dac+EMG39Z1SYhpPDFaKxfXAhy1oPQ==" saltValue="wzneratCgsVhqxlTa5zf5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B17:C27"/>
+    <mergeCell ref="B30:C36"/>
+    <mergeCell ref="E5:G10"/>
+    <mergeCell ref="E12:G16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://securze.com/" xr:uid="{C9F900AF-4E91-B34A-9925-576B83790545}"/>
-    <hyperlink ref="C8" r:id="rId2" display="mailto:info@securze.com" xr:uid="{0C6D228B-F522-B842-A11A-21907504DEA8}"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://securze.com/" xr:uid="{C9F900AF-4E91-B34A-9925-576B83790545}"/>
+    <hyperlink ref="C9" r:id="rId2" display="mailto:info@securze.com" xr:uid="{0C6D228B-F522-B842-A11A-21907504DEA8}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{ABC342E3-20B0-9846-B144-5E2619CC3177}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2253,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2295,1764 +2278,1764 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="I43" s="4"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="I44" s="4"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="I45" s="4"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="I48" s="4"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I49" s="4"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I50" s="4"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I51" s="4"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I52" s="4"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="I53" s="4"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="I54" s="4"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I55" s="4"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="I56" s="4"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I58" s="4"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="4"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="I60" s="4"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I61" s="4"/>
+      <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="I64" s="4"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="I65" s="4"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
